--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện2.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/Linh kiện2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,22 +199,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -240,9 +229,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -546,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,90 +773,6 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
